--- a/assets/disciplinas/LOM3207.xlsx
+++ b/assets/disciplinas/LOM3207.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir os conceitos de conversão de energia através de conversores estáticos da eletrônica de potência. Capacitar ao estudante à análise e projeto dos conversores básicos, bem como do entendimento dos conceitos de conversão de energia através de conversores que produzem formas de ondas não senoidais.</t>
+    <t>5982760 - Carlos Alberto Baldan</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5982760 - Carlos Alberto Baldan</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semicondutores de potência. Conversores CA-CC. Conversores CA-CA. Conversores CC-CC. Conversores CC-CA. Conversores CA-CA.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Semicondutores de potência: diodos, tiristores, transistores de potência. Conversores CA-CC: retificadores não controlados, totalmente controlados e semicontrolados. Conversores CA-CA: controladores de tensão monofásicos e trifásicos, com controle "liga-desliga" (ON-OFF) e controle de fase. Conversores CC-CC: circuitos recortadores (choppers) de 1, 2 e 4 quadrantes; e reguladores CC chaveados. Conversores CC-CA: inversores de fonte de tensão e inversores de fonte de corrente. Conversores CA-CA: cicloconversores.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e práticas, com uso de ferramentas computacionais.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média de duas provas escritas e relatórios: P1, P2 e MR. Conceito Final = (P1 + 2P2 + MR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BARBI, I. Eletrônica de Potência, Edição do Autor, Florianópolis, SC, 2002. MARTINS, D. C.; BARBI, I. Conversores CC-CC Básicos não Isolados, Edição dos Autores, Florianópolis, SC, 2006. MARTINS, D. C.; BARBI, I. Introdução ao Estudo dos Conversores CC-CA, Edição dos Autores, Florianópolis, SC, 2005. RASHID, M. H. Eletrônica de Potência, Makron Books do Brasil, 1999. AHMED, A. Eletrônica de Potência, Prentice Hall, São Paulo, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
